--- a/week 4/uni_toronto.xlsx
+++ b/week 4/uni_toronto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/projects/Coursera_Capstone/week 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C476E8CF-F7F0-3E4D-B49F-F21A54D918EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC296C-22D2-4C4E-BED7-8C66AE2C35C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,435 +508,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>43.663462000000003</v>
       </c>
       <c r="E2">
-        <v>43.663462000000003</v>
-      </c>
-      <c r="F2">
         <v>-79.397759653374521</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>43.779241900000002</v>
       </c>
       <c r="E3">
-        <v>43.779241900000002</v>
-      </c>
-      <c r="F3">
         <v>-79.483559299999996</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>43.658469449999998</v>
       </c>
       <c r="E4">
-        <v>43.658469449999998</v>
-      </c>
-      <c r="F4">
         <v>-79.378993272458857</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>43.728511500000003</v>
       </c>
       <c r="E5">
-        <v>43.728511500000003</v>
-      </c>
-      <c r="F5">
         <v>-79.606249615423621</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>43.785792399999998</v>
       </c>
       <c r="E6">
-        <v>43.785792399999998</v>
-      </c>
-      <c r="F6">
         <v>-79.227809575358165</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>6.9312100000000001</v>
       </c>
       <c r="E7">
-        <v>6.9312100000000001</v>
-      </c>
-      <c r="F7">
         <v>-10.91934</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>43.649334000000003</v>
       </c>
       <c r="E8">
-        <v>43.649334000000003</v>
-      </c>
-      <c r="F8">
         <v>-79.388887400000002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>43.797251099999997</v>
       </c>
       <c r="E11">
-        <v>43.797251099999997</v>
-      </c>
-      <c r="F11">
         <v>-79.392617438182214</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>43.796730400000001</v>
       </c>
       <c r="E13">
-        <v>43.796730400000001</v>
-      </c>
-      <c r="F13">
         <v>-79.349377403617154</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>0.31360965000000002</v>
       </c>
       <c r="E14">
-        <v>0.31360965000000002</v>
-      </c>
-      <c r="F14">
         <v>32.589131849123788</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>43.665301550000002</v>
       </c>
       <c r="E16">
-        <v>43.665301550000002</v>
-      </c>
-      <c r="F16">
         <v>-79.39525214965947</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>49.288311100000001</v>
       </c>
       <c r="E19">
-        <v>49.288311100000001</v>
-      </c>
-      <c r="F19">
         <v>-123.1225453</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>40.005728499999996</v>
       </c>
       <c r="E20">
-        <v>40.005728499999996</v>
-      </c>
-      <c r="F20">
         <v>-75.174545300000005</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>52.217104450000001</v>
       </c>
       <c r="E21">
-        <v>52.217104450000001</v>
-      </c>
-      <c r="F21">
         <v>0.13760361018561981</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>43.665598699999997</v>
       </c>
       <c r="E22">
-        <v>43.665598699999997</v>
-      </c>
-      <c r="F22">
         <v>-79.391266999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>43.664512449999997</v>
       </c>
       <c r="E23">
-        <v>43.664512449999997</v>
-      </c>
-      <c r="F23">
         <v>-79.395141041163157</v>
       </c>
     </row>
